--- a/data/trans_dic/P20D_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P20D_R-Habitat-trans_dic.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -596,7 +596,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -696,7 +696,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P20D_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P20D_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,7 +579,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>17,65; 100,0</t>
+          <t>18,65; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -589,7 +589,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>24,78; 90,91</t>
+          <t>20,21; 86,67</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>56,12; 94,8</t>
+          <t>51,39; 95,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,63; 53,09</t>
+          <t>7,66; 53,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>32,88; 73,8</t>
+          <t>32,16; 73,61</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>30,64; 82,84</t>
+          <t>29,2; 80,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>31,98; 81,74</t>
+          <t>33,41; 86,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>37,71; 75,03</t>
+          <t>39,17; 75,26</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>37,86; 91,47</t>
+          <t>41,3; 91,86</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,41; 73,75</t>
+          <t>14,27; 70,83</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>39,16; 76,83</t>
+          <t>40,5; 77,01</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>61,06; 92,86</t>
+          <t>59,91; 92,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>14,27; 46,27</t>
+          <t>14,95; 48,8</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>41,22; 68,96</t>
+          <t>40,46; 68,71</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>59,92; 81,45</t>
+          <t>59,78; 82,55</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>27,32; 54,42</t>
+          <t>26,94; 51,36</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>47,94; 64,41</t>
+          <t>47,6; 63,66</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P20D_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P20D_R-Habitat-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>64,51%</t>
+          <t>74,91%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>44,29%</t>
+          <t>29,34%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>59,13%</t>
+          <t>55,8%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>18,65; 100,0</t>
+          <t>49,77; 89,94</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>11,19; 55,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>20,21; 86,67</t>
+          <t>35,23; 71,44</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>79,8%</t>
+          <t>53,8%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>26,16%</t>
+          <t>56,68%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>53,86%</t>
+          <t>55,33%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>51,39; 95,65</t>
+          <t>28,03; 79,83</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,66; 53,73</t>
+          <t>33,64; 86,27</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>32,16; 73,61</t>
+          <t>37,9; 74,9</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>56,02%</t>
+          <t>67,75%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>56,7%</t>
+          <t>40,63%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>56,39%</t>
+          <t>58,81%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>29,2; 80,89</t>
+          <t>38,73; 91,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>33,41; 86,54</t>
+          <t>14,83; 71,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>39,17; 75,26</t>
+          <t>39,45; 76,46</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>69,36%</t>
+          <t>79,57%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>40,16%</t>
+          <t>28,97%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>59,45%</t>
+          <t>55,84%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>41,3; 91,86</t>
+          <t>59,64; 92,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14,27; 70,83</t>
+          <t>14,83; 47,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>40,5; 77,01</t>
+          <t>40,57; 69,12</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>79,76%</t>
+          <t>70,59%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>29,15%</t>
+          <t>38,38%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>55,75%</t>
+          <t>56,27%</t>
         </is>
       </c>
     </row>
@@ -779,86 +779,35 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>59,91; 92,4</t>
+          <t>59,12; 82,22</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>14,95; 48,8</t>
+          <t>26,73; 50,81</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>40,46; 68,71</t>
+          <t>47,38; 63,52</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>71,31%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>38,53%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>56,5%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>59,78; 82,55</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>26,94; 51,36</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>47,6; 63,66</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P20D_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P20D_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>49,77; 89,94</t>
+          <t>53,19; 92,01</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,19; 55,99</t>
+          <t>12,31; 55,93</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>35,23; 71,44</t>
+          <t>36,56; 71,8</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>28,03; 79,83</t>
+          <t>23,98; 79,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>33,64; 86,27</t>
+          <t>31,48; 81,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>37,9; 74,9</t>
+          <t>38,01; 76,12</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>38,73; 91,32</t>
+          <t>37,33; 86,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,83; 71,32</t>
+          <t>15,86; 75,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>39,45; 76,46</t>
+          <t>38,85; 77,54</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>59,64; 92,36</t>
+          <t>60,65; 92,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14,83; 47,79</t>
+          <t>15,34; 48,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>40,57; 69,12</t>
+          <t>42,19; 68,53</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>59,12; 82,22</t>
+          <t>58,54; 80,67</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>26,73; 50,81</t>
+          <t>28,26; 53,16</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>47,38; 63,52</t>
+          <t>47,82; 64,54</t>
         </is>
       </c>
     </row>
@@ -811,4 +812,462 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que durante el ingreso estuvo acompañada por una mujer casi todo el tiempo</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>11983</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>3390</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>15372</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>8508; 14718</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1422; 6460</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>10071; 19779</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>6611</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>7846</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>14456</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>2946; 9747</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>4357; 11288</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>9931; 19887</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>9616</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>2834</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>12450</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>5299; 12285</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1106; 5275</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>8225; 16415</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>15753</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>5063</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>20816</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>12008; 18238</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2681; 8413</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>15727; 25544</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>43963</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>19132</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>63094</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>36456; 50242</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>14084; 26495</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>53611; 72362</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>